--- a/Framework使用ガイド.xlsx
+++ b/Framework使用ガイド.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keita/Desktop/Common/Java-WAF/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AF132F-BC2C-D547-8EFE-744A6344AB3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="26955" windowHeight="13230" activeTab="1"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="33400" windowHeight="19000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実行環境" sheetId="5" r:id="rId1"/>
@@ -1652,7 +1658,23 @@
   </si>
   <si>
     <r>
-      <t>@Gateway(path=</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFCC0099"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1661,43 +1683,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"/submit"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, params=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"exampleForm.favorite=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>おセックス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
+      <t>"/WEB-INF/sex.jsp"</t>
     </r>
     <r>
       <rPr>
@@ -1706,96 +1692,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFCC0099"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"/WEB-INF/sex.jsp"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>;</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>@Gateway(path=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"/submit"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, params={"next", "favorite=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>おセックス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>", "aaa=bbb"}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1940,13 +1837,122 @@
     <rPh sb="5" eb="7">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>@Gateway(path=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, params=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"exampleForm.favorite=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>guitar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>@Gateway(path=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/submit"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, params={"next", "favorite=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>guitar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>", "aaa=bbb"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -2125,6 +2131,14 @@
       <color rgb="FFCC0099"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2171,7 +2185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2203,9 +2217,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2237,6 +2269,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2412,14 +2462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
@@ -2464,26 +2514,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="4.625" style="4"/>
+    <col min="1" max="16384" width="4.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="17.25">
+    <row r="2" spans="2:20" ht="17">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -2517,7 +2567,7 @@
     <row r="8" spans="2:20">
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2540,7 +2590,7 @@
     <row r="9" spans="2:20">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2632,7 +2682,7 @@
     <row r="13" spans="2:20">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2655,7 +2705,7 @@
     <row r="14" spans="2:20">
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2951,7 +3001,7 @@
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2976,7 +3026,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2997,7 +3047,7 @@
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3020,37 +3070,37 @@
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="C32" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="D38" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3061,16 +3111,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="1:17" ht="17.25">
+    <row r="2" spans="1:17" ht="17">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3568,24 +3618,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T117"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Y118" sqref="Y118"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="4"/>
+    <col min="1" max="16384" width="3.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25">
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:20">
@@ -4895,7 +4945,7 @@
     <row r="108" spans="2:20" ht="15">
       <c r="B108" s="9"/>
       <c r="C108" s="8" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -4942,7 +4992,7 @@
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -5008,7 +5058,7 @@
     <row r="113" spans="2:20" ht="15">
       <c r="B113" s="9"/>
       <c r="C113" s="8" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -5128,14 +5178,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5143,28 +5193,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5199,10 +5249,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="C12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>7</v>
